--- a/document/DEBIT NOTE.xlsx
+++ b/document/DEBIT NOTE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Working\Projects\ACL\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Working\Projects\GitHub\ael\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="117" sheetId="9" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" calcMode="manual"/>
 </workbook>
 </file>
 
@@ -734,6 +734,39 @@
     <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -754,39 +787,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1145,8 +1145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1241,51 +1241,51 @@
       <c r="M5" s="36"/>
     </row>
     <row r="6" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="85" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="74"/>
-      <c r="K6" s="74"/>
-      <c r="L6" s="74"/>
+      <c r="B6" s="85"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="85"/>
+      <c r="L6" s="85"/>
       <c r="M6" s="37"/>
     </row>
     <row r="7" spans="1:13" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="74"/>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
+      <c r="A7" s="85"/>
+      <c r="B7" s="85"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="85"/>
+      <c r="K7" s="85"/>
+      <c r="L7" s="85"/>
     </row>
     <row r="8" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="75" t="s">
+      <c r="A8" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="75"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="75"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="75"/>
-      <c r="K8" s="75"/>
-      <c r="L8" s="75"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="86"/>
+      <c r="L8" s="86"/>
     </row>
     <row r="9" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="45"/>
@@ -1296,12 +1296,12 @@
       <c r="F9" s="45"/>
       <c r="G9" s="45"/>
       <c r="H9" s="45"/>
-      <c r="I9" s="85" t="s">
+      <c r="I9" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="J9" s="85"/>
-      <c r="K9" s="85"/>
-      <c r="L9" s="85"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="76"/>
     </row>
     <row r="10" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
@@ -1417,7 +1417,7 @@
       <c r="K15" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="M15" s="83" t="s">
+      <c r="M15" s="74" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1431,18 +1431,18 @@
       <c r="C16" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="86" t="s">
+      <c r="D16" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="E16" s="86"/>
-      <c r="F16" s="86"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="77"/>
       <c r="J16" s="9" t="s">
         <v>62</v>
       </c>
       <c r="K16" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="M16" s="83"/>
+      <c r="M16" s="74"/>
     </row>
     <row r="17" spans="1:13" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
@@ -1460,7 +1460,7 @@
       <c r="K17" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="M17" s="83"/>
+      <c r="M17" s="74"/>
     </row>
     <row r="18" spans="1:13" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
@@ -1479,46 +1479,46 @@
       <c r="L18" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="M18" s="83"/>
+      <c r="M18" s="74"/>
     </row>
     <row r="19" spans="1:13" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="81" t="s">
+      <c r="A19" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="81" t="s">
+      <c r="B19" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="81" t="s">
+      <c r="C19" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="87" t="s">
+      <c r="D19" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="88"/>
-      <c r="F19" s="89"/>
-      <c r="G19" s="90" t="s">
+      <c r="E19" s="81"/>
+      <c r="F19" s="82"/>
+      <c r="G19" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="H19" s="81" t="s">
+      <c r="H19" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="I19" s="81" t="s">
+      <c r="I19" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="J19" s="81" t="s">
+      <c r="J19" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="K19" s="81" t="s">
+      <c r="K19" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="L19" s="81" t="s">
+      <c r="L19" s="78" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:13" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="82"/>
-      <c r="B20" s="82"/>
-      <c r="C20" s="82"/>
+      <c r="A20" s="79"/>
+      <c r="B20" s="79"/>
+      <c r="C20" s="79"/>
       <c r="D20" s="12" t="s">
         <v>3</v>
       </c>
@@ -1528,12 +1528,12 @@
       <c r="F20" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="G20" s="91"/>
-      <c r="H20" s="82"/>
-      <c r="I20" s="82"/>
-      <c r="J20" s="82"/>
-      <c r="K20" s="82"/>
-      <c r="L20" s="82"/>
+      <c r="G20" s="84"/>
+      <c r="H20" s="79"/>
+      <c r="I20" s="79"/>
+      <c r="J20" s="79"/>
+      <c r="K20" s="79"/>
+      <c r="L20" s="79"/>
     </row>
     <row r="21" spans="1:13" s="4" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="41">
@@ -1547,7 +1547,7 @@
       </c>
       <c r="D21" s="39"/>
       <c r="E21" s="43">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F21" s="43"/>
       <c r="G21" s="22">
@@ -1573,7 +1573,9 @@
       <c r="B22" s="41"/>
       <c r="C22" s="41"/>
       <c r="D22" s="39"/>
-      <c r="E22" s="43"/>
+      <c r="E22" s="43">
+        <v>5</v>
+      </c>
       <c r="F22" s="43"/>
       <c r="G22" s="22"/>
       <c r="H22" s="40"/>
@@ -1608,11 +1610,11 @@
       <c r="L23" s="62"/>
     </row>
     <row r="24" spans="1:13" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="76" t="s">
+      <c r="A24" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="77"/>
-      <c r="C24" s="77"/>
+      <c r="B24" s="88"/>
+      <c r="C24" s="88"/>
       <c r="D24" s="49"/>
       <c r="E24" s="49"/>
       <c r="F24" s="49"/>
@@ -1806,14 +1808,14 @@
       <c r="L30" s="67"/>
     </row>
     <row r="31" spans="1:13" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="78" t="s">
+      <c r="A31" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="79"/>
-      <c r="C31" s="79"/>
-      <c r="D31" s="79"/>
-      <c r="E31" s="79"/>
-      <c r="F31" s="80"/>
+      <c r="B31" s="90"/>
+      <c r="C31" s="90"/>
+      <c r="D31" s="90"/>
+      <c r="E31" s="90"/>
+      <c r="F31" s="91"/>
       <c r="G31" s="53">
         <f>G23+G30</f>
         <v>14763159</v>
@@ -1833,16 +1835,16 @@
     <row r="32" spans="1:13" s="5" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="28"/>
       <c r="B32" s="28"/>
-      <c r="C32" s="84"/>
-      <c r="D32" s="84"/>
-      <c r="E32" s="84"/>
-      <c r="F32" s="84"/>
-      <c r="G32" s="84"/>
-      <c r="H32" s="84"/>
-      <c r="I32" s="84"/>
-      <c r="J32" s="84"/>
-      <c r="K32" s="84"/>
-      <c r="L32" s="84"/>
+      <c r="C32" s="75"/>
+      <c r="D32" s="75"/>
+      <c r="E32" s="75"/>
+      <c r="F32" s="75"/>
+      <c r="G32" s="75"/>
+      <c r="H32" s="75"/>
+      <c r="I32" s="75"/>
+      <c r="J32" s="75"/>
+      <c r="K32" s="75"/>
+      <c r="L32" s="75"/>
     </row>
     <row r="33" spans="1:12" s="5" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="28" t="s">
@@ -1976,6 +1978,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A6:L7"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
     <mergeCell ref="M15:M18"/>
     <mergeCell ref="C32:L32"/>
     <mergeCell ref="I9:L9"/>
@@ -1988,12 +1996,6 @@
     <mergeCell ref="H19:H20"/>
     <mergeCell ref="I19:I20"/>
     <mergeCell ref="G19:G20"/>
-    <mergeCell ref="A6:L7"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="75" orientation="landscape" r:id="rId1"/>
